--- a/doc/managment/Risikoregister.xlsx
+++ b/doc/managment/Risikoregister.xlsx
@@ -1,33 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D5EF47-F9E3-4A40-80A5-F715E96B7BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDCCA6F-10A5-43BE-A99D-B7E04B8853A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4860" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoregister" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="4" r:id="rId2"/>
     <sheet name="Bewertungsmatrix" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="113">
   <si>
     <t>Nr.</t>
   </si>
@@ -77,12 +67,6 @@
     <t>Bewertung</t>
   </si>
   <si>
-    <t>Verhindert</t>
-  </si>
-  <si>
-    <t>Eingetreten</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -119,12 +103,6 @@
     <t>Überwachung</t>
   </si>
   <si>
-    <t>Allgemeine Risiken</t>
-  </si>
-  <si>
-    <t>Risiken für die Spezifikationsphase</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
@@ -134,9 +112,6 @@
     <t>3.3</t>
   </si>
   <si>
-    <t>Risiken für (…)</t>
-  </si>
-  <si>
     <t>Normale Risiken haben Auswirkungen, die das Projekt aus eigener Kraft kompensieren Kann. Gegenmaßnahmen (falls erforderlich) sind bereits umgesetzt und für das Restrisiko sind ausreichende Zeit und Geldreserven allokiert. Die Auswirkungen auf die Projektziele sind gering.</t>
   </si>
   <si>
@@ -207,6 +182,180 @@
   </si>
   <si>
     <t>Risko 5</t>
+  </si>
+  <si>
+    <t>Planung</t>
+  </si>
+  <si>
+    <t>Durchführung</t>
+  </si>
+  <si>
+    <t>Prüfen</t>
+  </si>
+  <si>
+    <t>Übergabe</t>
+  </si>
+  <si>
+    <t>Kundenwunsch nicht berücksichtigt</t>
+  </si>
+  <si>
+    <t>schlechte Kommunikation</t>
+  </si>
+  <si>
+    <t>Ungewünschtes Produkt</t>
+  </si>
+  <si>
+    <t>Absprechen</t>
+  </si>
+  <si>
+    <t>Projekt Abänderung</t>
+  </si>
+  <si>
+    <t>Projekt Manager (Meetings)</t>
+  </si>
+  <si>
+    <t>Missverständnis mit Kunde</t>
+  </si>
+  <si>
+    <t>Missverständnis im Team</t>
+  </si>
+  <si>
+    <t>Verringerte Teamfähigkeit</t>
+  </si>
+  <si>
+    <t>Aufgaben-Fehlverteilung</t>
+  </si>
+  <si>
+    <t>Nicht berücksichtigung von Fähigkeiten</t>
+  </si>
+  <si>
+    <t>Verlängerung Projektdauer</t>
+  </si>
+  <si>
+    <t>Umverteilen</t>
+  </si>
+  <si>
+    <t>Klare Planung</t>
+  </si>
+  <si>
+    <t>Team-Mitglieder</t>
+  </si>
+  <si>
+    <t>betroffene Team-Mitglieder</t>
+  </si>
+  <si>
+    <t>Frontend nicht fertig</t>
+  </si>
+  <si>
+    <t>schlechte Planung, Unvorhergesehene Ausfälle</t>
+  </si>
+  <si>
+    <t>Klare Planung, Homeoffice (Corona)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Resourcen Umplanen</t>
+  </si>
+  <si>
+    <t>Backend nicht fertig</t>
+  </si>
+  <si>
+    <t>Verlängerung gesamt Projektdauer</t>
+  </si>
+  <si>
+    <t>Verlängerung Teil-Projektdauer</t>
+  </si>
+  <si>
+    <t>Abgleich Lastenheft nicht fertig</t>
+  </si>
+  <si>
+    <t>Unvorhergesehene Ausfälle</t>
+  </si>
+  <si>
+    <t>Pen-test nicht bestanden</t>
+  </si>
+  <si>
+    <t>Unklar</t>
+  </si>
+  <si>
+    <t>Ausbesserung Schwachstelle</t>
+  </si>
+  <si>
+    <t>Sekräterinnen unzufrieden mit Beta</t>
+  </si>
+  <si>
+    <t>Nachbesserung Produkt, Zeitverschiebung</t>
+  </si>
+  <si>
+    <t>Absprechen von Anfang an</t>
+  </si>
+  <si>
+    <t>Nachbessern</t>
+  </si>
+  <si>
+    <t>Zu Fachlich geschrieben</t>
+  </si>
+  <si>
+    <t>Eventuelle Bedienfehler</t>
+  </si>
+  <si>
+    <t>Oft Überprüfenlassen</t>
+  </si>
+  <si>
+    <t>Überarbeitung</t>
+  </si>
+  <si>
+    <t>Falsche Version der Wireframes abgegeben</t>
+  </si>
+  <si>
+    <t>Schlechte Versionierung</t>
+  </si>
+  <si>
+    <t>Nicht Aktuell</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Nachlieferung</t>
+  </si>
+  <si>
+    <t>Nicht "Sauberer" Code</t>
+  </si>
+  <si>
+    <t>Schlechte Coding Guidelines</t>
+  </si>
+  <si>
+    <t>Coding Guidelines festlegen</t>
+  </si>
+  <si>
+    <t>Anleitung nicht verständlich</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Frontend &amp; Backend nicht kompatibel</t>
+  </si>
+  <si>
+    <t>Anpassung Back/Front-end</t>
+  </si>
+  <si>
+    <t>Eintritts-Wahrscheinlichkeit</t>
+  </si>
+  <si>
+    <t>Wireframes nicht fertig</t>
+  </si>
+  <si>
+    <t>Homeoffice (Corona)</t>
+  </si>
+  <si>
+    <t>Schnittstellen unklar definiert</t>
+  </si>
+  <si>
+    <t>Meeting/Neu Definition</t>
   </si>
 </sst>
 </file>
@@ -263,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,12 +422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="46"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="41"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -308,6 +451,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,9 +568,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -435,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -453,74 +608,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -528,7 +699,7 @@
     <cellStyle name="40 % - Akzent1" xfId="2" builtinId="31"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="58">
     <dxf>
       <font>
         <color theme="6" tint="-0.499984740745262"/>
@@ -568,6 +739,178 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1247,289 +1590,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:N25"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:K13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="23.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="4" customWidth="1"/>
     <col min="7" max="8" width="12.7109375" style="4" customWidth="1"/>
-    <col min="9" max="11" width="23.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" style="4" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="4" customWidth="1"/>
     <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-    </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="L2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
+      <c r="M2" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="9">
+        <f>(VLOOKUP(F5,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G5,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>30</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="9">
+        <f>(VLOOKUP(L5,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M5,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="9">
+        <f>(VLOOKUP(F6,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G6,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>36</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="9">
+        <f>(VLOOKUP(L6,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M6,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="9">
+        <f>(VLOOKUP(F7,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G7,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>18</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="15" t="s">
+      <c r="M7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="9">
+        <f>(VLOOKUP(L7,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M7,Bewertungsmatrix!$A$8:$C$10,2))</f>
         <v>9</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>1</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="F8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H8" s="9">
         <f>(VLOOKUP(F8,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G8,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>18</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="L8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N8" s="9">
         <f>(VLOOKUP(L8,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M8,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H9" s="9">
         <f>(VLOOKUP(F9,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G9,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>36</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="L9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N9" s="9">
         <f>(VLOOKUP(L9,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M9,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="19">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="9">
-        <f>(VLOOKUP(F10,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G10,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>100</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="9">
-        <f>(VLOOKUP(L10,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M10,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F11" s="9" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H11" s="9">
         <f>(VLOOKUP(F11,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G11,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>18</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="L11" s="9" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N11" s="9">
         <f>(VLOOKUP(L11,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M11,Bewertungsmatrix!$A$8:$C$10,2))</f>
@@ -1540,262 +2042,355 @@
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="F12" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H12" s="9">
         <f>(VLOOKUP(F12,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G12,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="L12" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N12" s="9">
         <f>(VLOOKUP(L12,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M12,Bewertungsmatrix!$A$8:$C$10,2))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="9">
+        <f>(VLOOKUP(F13,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G13,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>60</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="9">
+        <f>(VLOOKUP(L13,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M13,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="H14" s="9">
         <f>(VLOOKUP(F14,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G14,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="L14" s="9" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" s="9">
-        <f>(VLOOKUP(L14,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M14,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="9">
-        <f>(VLOOKUP(F15,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G15,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="9">
-        <f>(VLOOKUP(L15,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M15,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
+      <c r="A15" s="19">
+        <v>3</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F16" s="9" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H16" s="9">
         <f>(VLOOKUP(F16,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G16,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="L16" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N16" s="9">
         <f>(VLOOKUP(L16,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M16,Bewertungsmatrix!$A$8:$C$10,2))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>3</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="9">
+        <f>(VLOOKUP(F17,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G17,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>60</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="9">
+        <f>(VLOOKUP(L17,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M17,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="F18" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H18" s="9">
         <f>(VLOOKUP(F18,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G18,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="L18" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N18" s="9">
         <f>(VLOOKUP(L18,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M18,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="9">
-        <f>(VLOOKUP(F19,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G19,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N19" s="9">
-        <f>(VLOOKUP(L19,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M19,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
+      <c r="A19" s="19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="F20" s="9" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H20" s="9">
         <f>(VLOOKUP(F20,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G20,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="L20" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N20" s="9">
         <f>(VLOOKUP(L20,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M20,Bewertungsmatrix!$A$8:$C$10,2))</f>
@@ -1803,29 +2398,45 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="A21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="F21" s="9" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H21" s="9">
         <f>(VLOOKUP(F21,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G21,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="L21" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N21" s="9">
         <f>(VLOOKUP(L21,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M21,Bewertungsmatrix!$A$8:$C$10,2))</f>
@@ -1833,262 +2444,248 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F22" s="9" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H22" s="9">
         <f>(VLOOKUP(F22,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G22,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="L22" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N22" s="9">
         <f>(VLOOKUP(L22,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M22,Bewertungsmatrix!$A$8:$C$10,2))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="9">
-        <f>(VLOOKUP(F23,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G23,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N23" s="9">
-        <f>(VLOOKUP(L23,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M23,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="9">
-        <f>(VLOOKUP(F24,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G24,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N24" s="9">
-        <f>(VLOOKUP(L24,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M24,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="9">
-        <f>(VLOOKUP(F25,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G25,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N25" s="9">
-        <f>(VLOOKUP(L25,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M25,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C4:E4"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="F8:H12 F14:H25">
-    <cfRule type="containsText" dxfId="37" priority="31" operator="containsText" text="Kritisch">
-      <formula>NOT(ISERROR(SEARCH("Kritisch",F8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",F8)))</formula>
+  <conditionalFormatting sqref="F5:H9 F11:H18">
+    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="Kritisch">
+      <formula>NOT(ISERROR(SEARCH("Kritisch",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B12 B14:C25">
-    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="Eingetreten">
-      <formula>NOT(ISERROR(SEARCH("Eingetreten",B8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="Verhindert">
-      <formula>NOT(ISERROR(SEARCH("Verhindert",B8)))</formula>
+  <conditionalFormatting sqref="B5:B9 B11:C11 B15:C18 B12:B14">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Eingetreten">
+      <formula>NOT(ISERROR(SEARCH("Eingetreten",B5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Verhindert">
+      <formula>NOT(ISERROR(SEARCH("Verhindert",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G12">
-    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",G8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="26" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",G8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",G8)))</formula>
+  <conditionalFormatting sqref="G5:G9">
+    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G16">
-    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",G14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",G14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="24" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",G14)))</formula>
+  <conditionalFormatting sqref="G11:G14">
+    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",G11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",G11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G16">
-    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",G14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",G14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",G14)))</formula>
+  <conditionalFormatting sqref="G11:G14">
+    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",G11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",G11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G25">
-    <cfRule type="containsText" dxfId="24" priority="16" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",G18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",G18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",G18)))</formula>
+  <conditionalFormatting sqref="G16:G18">
+    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",G16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",G16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",G16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:N12 L14:N25">
-    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="Kritisch">
-      <formula>NOT(ISERROR(SEARCH("Kritisch",L8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",L8)))</formula>
+  <conditionalFormatting sqref="L5:N9 L11:N18">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Kritisch">
+      <formula>NOT(ISERROR(SEARCH("Kritisch",L5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",L5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M12">
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",M8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",M8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",M8)))</formula>
+  <conditionalFormatting sqref="M5:M9">
+    <cfRule type="containsText" dxfId="39" priority="34" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",M5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",M5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",M5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M16">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",M14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",M14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",M14)))</formula>
+  <conditionalFormatting sqref="M11:M14">
+    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",M11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="32" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",M11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",M11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M16">
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",M14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",M14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",M14)))</formula>
+  <conditionalFormatting sqref="M11:M14">
+    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",M11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",M11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",M11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M25">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",M18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",M18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",M18)))</formula>
+  <conditionalFormatting sqref="M16:M18">
+    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",M16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",M16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",M16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:H22">
+    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="Kritisch">
+      <formula>NOT(ISERROR(SEARCH("Kritisch",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",F19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:C19 C20:C22">
+    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="Eingetreten">
+      <formula>NOT(ISERROR(SEARCH("Eingetreten",B19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="Verhindert">
+      <formula>NOT(ISERROR(SEARCH("Verhindert",B19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G22">
+    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",G20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",G20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",G20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:N22">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Kritisch">
+      <formula>NOT(ISERROR(SEARCH("Kritisch",L19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",L19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20:M22">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",M20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",M20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",M20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Eingetreten">
+      <formula>NOT(ISERROR(SEARCH("Eingetreten",B20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Verhindert">
+      <formula>NOT(ISERROR(SEARCH("Verhindert",B20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Eingetreten">
+      <formula>NOT(ISERROR(SEARCH("Eingetreten",B21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Verhindert">
+      <formula>NOT(ISERROR(SEARCH("Verhindert",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Eingetreten">
+      <formula>NOT(ISERROR(SEARCH("Eingetreten",B22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Verhindert">
+      <formula>NOT(ISERROR(SEARCH("Verhindert",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:C25 B14:C16 B8:B12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B9 B16:C18 B20:C22 B11:B14 C11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Monitoring, Verhindert, Eingetreten"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{5D767AF0-6EB5-4A34-865F-612B0802E754}">
-            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,F8)))</xm:f>
+          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{5D767AF0-6EB5-4A34-865F-612B0802E754}">
+            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,F5)))</xm:f>
             <xm:f>Bewertungsmatrix!$A$3</xm:f>
             <x14:dxf>
               <font>
@@ -2101,11 +2698,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F8:H12 F14:H25</xm:sqref>
+          <xm:sqref>F5:H9 F11:H18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{D0F71A92-99CA-4C26-A0C8-B80D19DA3DE5}">
-            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,L8)))</xm:f>
+          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{D0F71A92-99CA-4C26-A0C8-B80D19DA3DE5}">
+            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,L5)))</xm:f>
             <xm:f>Bewertungsmatrix!$A$3</xm:f>
             <x14:dxf>
               <font>
@@ -2118,7 +2715,41 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L8:N12 L14:N25</xm:sqref>
+          <xm:sqref>L5:N9 L11:N18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{6B6ECD0D-2830-4939-B108-D6A7ABA1BDE9}">
+            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,F19)))</xm:f>
+            <xm:f>Bewertungsmatrix!$A$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="6" tint="-0.499984740745262"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F19:H22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{92AE4E55-D893-4D56-8298-696AD604F894}">
+            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,L19)))</xm:f>
+            <xm:f>Bewertungsmatrix!$A$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="6" tint="-0.499984740745262"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L19:N22</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2128,13 +2759,13 @@
           <x14:formula1>
             <xm:f>Bewertungsmatrix!$A$8:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G8:G12 G14:G16 G18:G25 M8:M12 M14:M16 M18:M25</xm:sqref>
+          <xm:sqref>G5:G9 G11:G14 M16:M18 M5:M9 M11:M14 G16:G18 M20:M22 G20:G22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B726877-E88E-4ED7-AA75-38D95FCE8CC1}">
           <x14:formula1>
             <xm:f>Bewertungsmatrix!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F8:F12 F14:F16 F18:F25 L8:L12 L14:L16 L18:L25</xm:sqref>
+          <xm:sqref>F5:F9 F11:F14 L16:L18 L5:L9 L11:L14 F16:F18 L20:L22 F20:F22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2153,69 +2784,69 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>53</v>
+      <c r="C2" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2301,87 +2932,87 @@
         <v>15</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>51</v>
+      <c r="A3" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="B3" s="11">
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
         <v>6</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="11">
         <v>10</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>49</v>
+      <c r="A8" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="B8" s="11">
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>50</v>
+      <c r="A9" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="B9" s="11">
         <v>6</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>52</v>
+      <c r="A10" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="B10" s="11">
         <v>10</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/doc/managment/Risikoregister.xlsx
+++ b/doc/managment/Risikoregister.xlsx
@@ -3,21 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDCCA6F-10A5-43BE-A99D-B7E04B8853A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E910BF20-0CE4-47D1-9343-A25EEEFE361D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoregister" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="4" r:id="rId2"/>
     <sheet name="Bewertungsmatrix" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="131">
   <si>
     <t>Nr.</t>
   </si>
@@ -356,6 +367,60 @@
   </si>
   <si>
     <t>Meeting/Neu Definition</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Kalenderpage nicht fertig</t>
+  </si>
+  <si>
+    <t>Experten Befragung</t>
+  </si>
+  <si>
+    <t>schlechte Planung,Komplexer als erwartet</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Meetings mit Kunden</t>
+  </si>
+  <si>
+    <t>Sicherheitslücke</t>
+  </si>
+  <si>
+    <t>Datensicherheit nicht gewährleistet</t>
+  </si>
+  <si>
+    <t>Pen-Test</t>
+  </si>
+  <si>
+    <t>Lücke Schließen</t>
+  </si>
+  <si>
+    <t>Kunde ist unzufireden</t>
+  </si>
+  <si>
+    <t>Verwehrt Zahlung</t>
+  </si>
+  <si>
+    <t>Klage</t>
+  </si>
+  <si>
+    <t>Projekt Manager</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Ausfall Betroffener Personen</t>
+  </si>
+  <si>
+    <t>Krankheit</t>
+  </si>
+  <si>
+    <t>Neuer Termin</t>
   </si>
 </sst>
 </file>
@@ -467,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -564,13 +629,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -629,12 +716,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -678,20 +759,23 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -764,6 +848,46 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -810,26 +934,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="9" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -931,26 +1035,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1590,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,110 +1699,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="32" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="34" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1726,27 +1810,27 @@
       <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1769,7 +1853,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>63</v>
@@ -1792,7 +1876,7 @@
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1815,7 +1899,7 @@
         <v>36</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>63</v>
@@ -1838,7 +1922,7 @@
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1847,7 +1931,7 @@
       <c r="D7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1884,7 +1968,7 @@
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1916,21 +2000,21 @@
         <v>64</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="N8" s="9">
         <f>(VLOOKUP(L8,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M8,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1939,7 +2023,7 @@
       <c r="D9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -1973,132 +2057,132 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="9">
+        <f>(VLOOKUP(F10,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G10,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>18</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="9">
+        <f>(VLOOKUP(L10,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M10,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B11" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="9">
-        <f>(VLOOKUP(F11,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G11,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>60</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="9">
-        <f>(VLOOKUP(L11,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M11,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="9">
         <f>(VLOOKUP(F12,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G12,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="N12" s="9">
         <f>(VLOOKUP(L12,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M12,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>12</v>
@@ -2132,82 +2216,111 @@
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>45</v>
       </c>
       <c r="H14" s="9">
         <f>(VLOOKUP(F14,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G14,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>107</v>
+        <v>77</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>3</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="N14" s="9">
+        <f>(VLOOKUP(L14,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M14,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>11</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="9">
+        <f>(VLOOKUP(F15,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G15,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>60</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="9">
+        <f>(VLOOKUP(L15,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M15,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>11</v>
+      </c>
       <c r="C16" s="5" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>12</v>
@@ -2220,278 +2333,436 @@
         <v>30</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>79</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="N16" s="9">
         <f>(VLOOKUP(L16,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M16,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>3</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="C18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="9">
-        <f>(VLOOKUP(F17,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G17,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>60</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="N17" s="9">
-        <f>(VLOOKUP(L17,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M17,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="H18" s="9">
         <f>(VLOOKUP(F18,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G18,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>78</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>46</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N18" s="9">
         <f>(VLOOKUP(L18,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M18,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="9">
+        <f>(VLOOKUP(F19,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G19,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>60</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="9">
+        <f>(VLOOKUP(L19,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M19,Bewertungsmatrix!$A$8:$C$10,2))</f>
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>4</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>104</v>
+      <c r="C20" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" s="9">
         <f>(VLOOKUP(F20,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G20,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>74</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N20" s="9">
         <f>(VLOOKUP(L20,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M20,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>97</v>
+        <v>119</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21" s="9">
         <f>(VLOOKUP(F21,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G21,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>74</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="N21" s="9">
         <f>(VLOOKUP(L21,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M21,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>4</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="9">
+        <f>(VLOOKUP(F23,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G23,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>18</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="9">
+        <f>(VLOOKUP(L23,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M23,Bewertungsmatrix!$A$8:$C$10,2))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="9">
+        <f>(VLOOKUP(F24,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G24,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>36</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="9">
+        <f>(VLOOKUP(L24,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M24,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B25" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D25" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="F25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="9">
-        <f>(VLOOKUP(F22,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G22,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>60</v>
-      </c>
-      <c r="I22" s="5" t="s">
+      <c r="H25" s="9">
+        <f>(VLOOKUP(F25,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G25,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>36</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="M25" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N22" s="9">
-        <f>(VLOOKUP(L22,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M22,Bewertungsmatrix!$A$8:$C$10,2))</f>
+      <c r="N25" s="9">
+        <f>(VLOOKUP(L25,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M25,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="9">
+        <f>(VLOOKUP(F26,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G26,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>18</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="9">
+        <f>(VLOOKUP(L26,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M26,Bewertungsmatrix!$A$8:$C$10,2))</f>
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="F5:H9 F11:H18">
+  <conditionalFormatting sqref="F5:H10 F12:H21 L12:N21">
     <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="Kritisch">
       <formula>NOT(ISERROR(SEARCH("Kritisch",F5)))</formula>
     </cfRule>
@@ -2499,7 +2770,7 @@
       <formula>NOT(ISERROR(SEARCH("Hoch",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B9 B11:C11 B15:C18 B12:B14">
+  <conditionalFormatting sqref="B5:B10 B17:C17 B12:B16 B18:B21">
     <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Eingetreten">
       <formula>NOT(ISERROR(SEARCH("Eingetreten",B5)))</formula>
     </cfRule>
@@ -2507,7 +2778,7 @@
       <formula>NOT(ISERROR(SEARCH("Verhindert",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G9">
+  <conditionalFormatting sqref="G5:G10">
     <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",G5)))</formula>
     </cfRule>
@@ -2518,40 +2789,40 @@
       <formula>NOT(ISERROR(SEARCH("Gering",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G14">
+  <conditionalFormatting sqref="G12:G16">
     <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",G11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hoch",G12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",G11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mittel",G12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",G11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gering",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G14">
+  <conditionalFormatting sqref="G12:G16">
     <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",G11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hoch",G12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",G11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mittel",G12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",G11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gering",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G18">
+  <conditionalFormatting sqref="G18:G21">
     <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",G16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hoch",G18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",G16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mittel",G18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",G16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gering",G18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:N9 L11:N18">
+  <conditionalFormatting sqref="L5:N10">
     <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Kritisch">
       <formula>NOT(ISERROR(SEARCH("Kritisch",L5)))</formula>
     </cfRule>
@@ -2559,7 +2830,7 @@
       <formula>NOT(ISERROR(SEARCH("Hoch",L5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M9">
+  <conditionalFormatting sqref="M5:M10">
     <cfRule type="containsText" dxfId="39" priority="34" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",M5)))</formula>
     </cfRule>
@@ -2570,111 +2841,111 @@
       <formula>NOT(ISERROR(SEARCH("Gering",M5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M14">
+  <conditionalFormatting sqref="M12:M16">
     <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",M11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hoch",M12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="35" priority="32" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",M11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mittel",M12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",M11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gering",M12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M14">
+  <conditionalFormatting sqref="M12:M16">
     <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",M11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hoch",M12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",M11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mittel",M12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",M11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gering",M12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:M18">
+  <conditionalFormatting sqref="M18:M21">
     <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",M16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hoch",M18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",M16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mittel",M18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",M16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gering",M18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:H22">
-    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="Kritisch">
-      <formula>NOT(ISERROR(SEARCH("Kritisch",F19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",F19)))</formula>
+  <conditionalFormatting sqref="F22:H26">
+    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="Kritisch">
+      <formula>NOT(ISERROR(SEARCH("Kritisch",F22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:C19 C20:C22">
-    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="Eingetreten">
-      <formula>NOT(ISERROR(SEARCH("Eingetreten",B19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="Verhindert">
-      <formula>NOT(ISERROR(SEARCH("Verhindert",B19)))</formula>
+  <conditionalFormatting sqref="B22:C22">
+    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Eingetreten">
+      <formula>NOT(ISERROR(SEARCH("Eingetreten",B22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Verhindert">
+      <formula>NOT(ISERROR(SEARCH("Verhindert",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G22">
-    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",G20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",G20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",G20)))</formula>
+  <conditionalFormatting sqref="G23:G26">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",G23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",G23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",G23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19:N22">
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Kritisch">
-      <formula>NOT(ISERROR(SEARCH("Kritisch",L19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",L19)))</formula>
+  <conditionalFormatting sqref="L22:N26">
+    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="Kritisch">
+      <formula>NOT(ISERROR(SEARCH("Kritisch",L22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",L22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20:M22">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",M20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",M20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",M20)))</formula>
+  <conditionalFormatting sqref="M23:M26">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",M23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",M23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",M23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Eingetreten">
-      <formula>NOT(ISERROR(SEARCH("Eingetreten",B20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Verhindert">
-      <formula>NOT(ISERROR(SEARCH("Verhindert",B20)))</formula>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Eingetreten">
+      <formula>NOT(ISERROR(SEARCH("Eingetreten",B23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Verhindert">
+      <formula>NOT(ISERROR(SEARCH("Verhindert",B23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Eingetreten">
-      <formula>NOT(ISERROR(SEARCH("Eingetreten",B21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Verhindert">
-      <formula>NOT(ISERROR(SEARCH("Verhindert",B21)))</formula>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Eingetreten">
+      <formula>NOT(ISERROR(SEARCH("Eingetreten",B24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Verhindert">
+      <formula>NOT(ISERROR(SEARCH("Verhindert",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Eingetreten">
-      <formula>NOT(ISERROR(SEARCH("Eingetreten",B22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Verhindert">
-      <formula>NOT(ISERROR(SEARCH("Verhindert",B22)))</formula>
+  <conditionalFormatting sqref="B25:B26">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Eingetreten">
+      <formula>NOT(ISERROR(SEARCH("Eingetreten",B25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Verhindert">
+      <formula>NOT(ISERROR(SEARCH("Verhindert",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B9 B16:C18 B20:C22 B11:B14 C11" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B10 B18:B21 B23:B26 B12:B16" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Monitoring, Verhindert, Eingetreten"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2698,7 +2969,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F5:H9 F11:H18</xm:sqref>
+          <xm:sqref>F5:H10 F12:H21 L12:N21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="39" operator="containsText" id="{D0F71A92-99CA-4C26-A0C8-B80D19DA3DE5}">
@@ -2715,11 +2986,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L5:N9 L11:N18</xm:sqref>
+          <xm:sqref>L5:N10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="24" operator="containsText" id="{6B6ECD0D-2830-4939-B108-D6A7ABA1BDE9}">
-            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,F19)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,F22)))</xm:f>
             <xm:f>Bewertungsmatrix!$A$3</xm:f>
             <x14:dxf>
               <font>
@@ -2732,11 +3003,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F19:H22</xm:sqref>
+          <xm:sqref>F22:H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="16" operator="containsText" id="{92AE4E55-D893-4D56-8298-696AD604F894}">
-            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,L19)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,L22)))</xm:f>
             <xm:f>Bewertungsmatrix!$A$3</xm:f>
             <x14:dxf>
               <font>
@@ -2749,7 +3020,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L19:N22</xm:sqref>
+          <xm:sqref>L22:N26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2759,13 +3030,13 @@
           <x14:formula1>
             <xm:f>Bewertungsmatrix!$A$8:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G9 G11:G14 M16:M18 M5:M9 M11:M14 G16:G18 M20:M22 G20:G22</xm:sqref>
+          <xm:sqref>G5:G10 G12:G16 M18:M21 M5:M10 M12:M16 G18:G21 M23:M26 G23:G26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B726877-E88E-4ED7-AA75-38D95FCE8CC1}">
           <x14:formula1>
             <xm:f>Bewertungsmatrix!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F9 F11:F14 L16:L18 L5:L9 L11:L14 F16:F18 L20:L22 F20:F22</xm:sqref>
+          <xm:sqref>F5:F10 F12:F16 L18:L21 L5:L10 L12:L16 F18:F21 L23:L26 F23:F26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/doc/managment/Risikoregister.xlsx
+++ b/doc/managment/Risikoregister.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E910BF20-0CE4-47D1-9343-A25EEEFE361D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F39BF5-4E72-4E10-8EE5-6ECAD3AF7F15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoregister" sheetId="1" r:id="rId1"/>
@@ -273,9 +273,6 @@
     <t>Backend nicht fertig</t>
   </si>
   <si>
-    <t>Verlängerung gesamt Projektdauer</t>
-  </si>
-  <si>
     <t>Verlängerung Teil-Projektdauer</t>
   </si>
   <si>
@@ -421,6 +418,9 @@
   </si>
   <si>
     <t>Neuer Termin</t>
+  </si>
+  <si>
+    <t>evl.Verlängerung gesamt Projektdauer</t>
   </si>
 </sst>
 </file>
@@ -1676,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>43</v>
@@ -1853,7 +1853,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>63</v>
@@ -1899,7 +1899,7 @@
         <v>36</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>63</v>
@@ -1972,10 +1972,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>70</v>
@@ -1991,7 +1991,7 @@
         <v>60</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>78</v>
@@ -2018,7 +2018,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>60</v>
@@ -2040,7 +2040,7 @@
         <v>62</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>64</v>
@@ -2058,16 +2058,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>70</v>
@@ -2086,7 +2086,7 @@
         <v>78</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>64</v>
@@ -2182,7 +2182,7 @@
         <v>76</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>12</v>
@@ -2228,17 +2228,17 @@
         <v>76</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="9">
         <f>(VLOOKUP(F14,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G14,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>77</v>
@@ -2262,13 +2262,13 @@
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>60</v>
@@ -2290,7 +2290,7 @@
         <v>72</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>74</v>
@@ -2308,16 +2308,16 @@
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>70</v>
@@ -2333,7 +2333,7 @@
         <v>30</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>79</v>
@@ -2380,10 +2380,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>61</v>
@@ -2426,13 +2426,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>12</v>
@@ -2445,10 +2445,10 @@
         <v>60</v>
       </c>
       <c r="I19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>64</v>
@@ -2472,13 +2472,13 @@
         <v>11</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>12</v>
@@ -2494,7 +2494,7 @@
         <v>78</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>74</v>
@@ -2512,19 +2512,19 @@
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>12</v>
@@ -2537,10 +2537,10 @@
         <v>30</v>
       </c>
       <c r="I21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>74</v>
@@ -2584,13 +2584,13 @@
         <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>13</v>
@@ -2603,10 +2603,10 @@
         <v>18</v>
       </c>
       <c r="I23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>74</v>
@@ -2630,13 +2630,13 @@
         <v>11</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>13</v>
@@ -2649,10 +2649,10 @@
         <v>36</v>
       </c>
       <c r="I24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>74</v>
@@ -2676,10 +2676,10 @@
         <v>11</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>61</v>
@@ -2695,10 +2695,10 @@
         <v>36</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>74</v>
@@ -2716,19 +2716,19 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>13</v>
@@ -2741,13 +2741,13 @@
         <v>18</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>46</v>

--- a/doc/managment/Risikoregister.xlsx
+++ b/doc/managment/Risikoregister.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F39BF5-4E72-4E10-8EE5-6ECAD3AF7F15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBC4145-731F-4BF4-BAF0-9B679F86DD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoregister" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="122">
   <si>
     <t>Nr.</t>
   </si>
@@ -282,24 +282,9 @@
     <t>Unvorhergesehene Ausfälle</t>
   </si>
   <si>
-    <t>Pen-test nicht bestanden</t>
-  </si>
-  <si>
     <t>Unklar</t>
   </si>
   <si>
-    <t>Ausbesserung Schwachstelle</t>
-  </si>
-  <si>
-    <t>Sekräterinnen unzufrieden mit Beta</t>
-  </si>
-  <si>
-    <t>Nachbesserung Produkt, Zeitverschiebung</t>
-  </si>
-  <si>
-    <t>Absprechen von Anfang an</t>
-  </si>
-  <si>
     <t>Nachbessern</t>
   </si>
   <si>
@@ -378,42 +363,12 @@
     <t>schlechte Planung,Komplexer als erwartet</t>
   </si>
   <si>
-    <t>3.4</t>
-  </si>
-  <si>
     <t>Meetings mit Kunden</t>
   </si>
   <si>
-    <t>Sicherheitslücke</t>
-  </si>
-  <si>
-    <t>Datensicherheit nicht gewährleistet</t>
-  </si>
-  <si>
-    <t>Pen-Test</t>
-  </si>
-  <si>
-    <t>Lücke Schließen</t>
-  </si>
-  <si>
-    <t>Kunde ist unzufireden</t>
-  </si>
-  <si>
-    <t>Verwehrt Zahlung</t>
-  </si>
-  <si>
-    <t>Klage</t>
-  </si>
-  <si>
-    <t>Projekt Manager</t>
-  </si>
-  <si>
     <t>1.6</t>
   </si>
   <si>
-    <t>Ausfall Betroffener Personen</t>
-  </si>
-  <si>
     <t>Krankheit</t>
   </si>
   <si>
@@ -421,6 +376,24 @@
   </si>
   <si>
     <t>evl.Verlängerung gesamt Projektdauer</t>
+  </si>
+  <si>
+    <t>Bug kann nicht gefixed werden</t>
+  </si>
+  <si>
+    <t>evtl. Programmfehler</t>
+  </si>
+  <si>
+    <t>Workaround</t>
+  </si>
+  <si>
+    <t>Gute Coding-Practices einhalten</t>
+  </si>
+  <si>
+    <t>Verhindert</t>
+  </si>
+  <si>
+    <t>Ausfall benötigter Kontaktpersonen</t>
   </si>
 </sst>
 </file>
@@ -783,7 +756,7 @@
     <cellStyle name="40 % - Akzent1" xfId="2" builtinId="31"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="52">
     <dxf>
       <font>
         <color theme="6" tint="-0.499984740745262"/>
@@ -1130,36 +1103,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF9C6500"/>
@@ -1177,36 +1120,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1674,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1673,7 @@
         <v>4</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>43</v>
@@ -1853,7 +1766,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>63</v>
@@ -1899,7 +1812,7 @@
         <v>36</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>63</v>
@@ -1969,10 +1882,10 @@
         <v>19</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>83</v>
@@ -1991,7 +1904,7 @@
         <v>60</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>78</v>
@@ -2018,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>60</v>
@@ -2040,7 +1953,7 @@
         <v>62</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>64</v>
@@ -2058,16 +1971,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>70</v>
@@ -2086,7 +1999,7 @@
         <v>78</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>64</v>
@@ -2228,7 +2141,7 @@
         <v>76</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>13</v>
@@ -2262,13 +2175,13 @@
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>60</v>
@@ -2290,7 +2203,7 @@
         <v>72</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>74</v>
@@ -2308,16 +2221,16 @@
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>70</v>
@@ -2333,7 +2246,7 @@
         <v>30</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>79</v>
@@ -2426,32 +2339,32 @@
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="9">
         <f>(VLOOKUP(F19,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G19,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>13</v>
@@ -2464,149 +2377,149 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="9">
-        <f>(VLOOKUP(F20,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G20,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>60</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="9">
-        <f>(VLOOKUP(L20,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M20,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>4</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H21" s="9">
         <f>(VLOOKUP(F21,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G21,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>74</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="N21" s="9">
         <f>(VLOOKUP(L21,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M21,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
-        <v>4</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
+      <c r="A22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="9">
+        <f>(VLOOKUP(F22,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G22,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>36</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="9">
+        <f>(VLOOKUP(L22,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M22,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" s="9">
         <f>(VLOOKUP(F23,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G23,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>74</v>
@@ -2622,330 +2535,170 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="9">
-        <f>(VLOOKUP(F24,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G24,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>36</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="9">
-        <f>(VLOOKUP(L24,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M24,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="9">
-        <f>(VLOOKUP(F25,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G25,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>36</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N25" s="9">
-        <f>(VLOOKUP(L25,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M25,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="9">
-        <f>(VLOOKUP(F26,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G26,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>18</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="9">
-        <f>(VLOOKUP(L26,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M26,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="F5:H10 F12:H21 L12:N21">
-    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="Kritisch">
+  <conditionalFormatting sqref="F5:H10 F12:H19 L12:N19">
+    <cfRule type="containsText" dxfId="51" priority="55" operator="containsText" text="Kritisch">
       <formula>NOT(ISERROR(SEARCH("Kritisch",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="Hoch">
+    <cfRule type="containsText" dxfId="50" priority="56" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B10 B17:C17 B12:B16 B18:B21">
-    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Eingetreten">
+  <conditionalFormatting sqref="B5:B10 B17:C17 B12:B16 B18:B19">
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Eingetreten">
       <formula>NOT(ISERROR(SEARCH("Eingetreten",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Verhindert">
+    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Verhindert">
       <formula>NOT(ISERROR(SEARCH("Verhindert",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G10">
-    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Hoch">
+  <conditionalFormatting sqref="G5:G10 G18:G19 M18:M19">
+    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Gering">
+    <cfRule type="containsText" dxfId="45" priority="52" operator="containsText" text="Gering">
       <formula>NOT(ISERROR(SEARCH("Gering",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G16">
-    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="Hoch">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Gering">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Gering">
       <formula>NOT(ISERROR(SEARCH("Gering",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G16">
-    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Hoch">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Gering">
+    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="Gering">
       <formula>NOT(ISERROR(SEARCH("Gering",G12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G21">
-    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",G18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",G18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",G18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:N10">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Kritisch">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Kritisch">
       <formula>NOT(ISERROR(SEARCH("Kritisch",L5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Hoch">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",L5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M10">
-    <cfRule type="containsText" dxfId="39" priority="34" operator="containsText" text="Hoch">
+    <cfRule type="containsText" dxfId="36" priority="34" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",M5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",M5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="Gering">
+    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Gering">
       <formula>NOT(ISERROR(SEARCH("Gering",M5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M16">
-    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="Hoch">
+    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",M12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="32" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",M12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="Gering">
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="Gering">
       <formula>NOT(ISERROR(SEARCH("Gering",M12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M16">
-    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="Hoch">
+    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",M12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",M12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Gering">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="Gering">
       <formula>NOT(ISERROR(SEARCH("Gering",M12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M21">
-    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",M18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",M18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",M18)))</formula>
+  <conditionalFormatting sqref="F20:H23">
+    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="Kritisch">
+      <formula>NOT(ISERROR(SEARCH("Kritisch",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:H26">
-    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="Kritisch">
-      <formula>NOT(ISERROR(SEARCH("Kritisch",F22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",F22)))</formula>
+  <conditionalFormatting sqref="B20:C20">
+    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Eingetreten">
+      <formula>NOT(ISERROR(SEARCH("Eingetreten",B20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Verhindert">
+      <formula>NOT(ISERROR(SEARCH("Verhindert",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Eingetreten">
+  <conditionalFormatting sqref="G21:G23">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",G21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",G21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",G21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20:N23">
+    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="Kritisch">
+      <formula>NOT(ISERROR(SEARCH("Kritisch",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",L20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21:M23">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",M21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",M21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",M21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Eingetreten">
+      <formula>NOT(ISERROR(SEARCH("Eingetreten",B21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Verhindert">
+      <formula>NOT(ISERROR(SEARCH("Verhindert",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Eingetreten">
       <formula>NOT(ISERROR(SEARCH("Eingetreten",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Verhindert">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Verhindert">
       <formula>NOT(ISERROR(SEARCH("Verhindert",B22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G26">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",G23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",G23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",G23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22:N26">
-    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="Kritisch">
-      <formula>NOT(ISERROR(SEARCH("Kritisch",L22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",L22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M23:M26">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",M23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",M23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",M23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Eingetreten">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Eingetreten">
       <formula>NOT(ISERROR(SEARCH("Eingetreten",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Verhindert">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Verhindert">
       <formula>NOT(ISERROR(SEARCH("Verhindert",B23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Eingetreten">
-      <formula>NOT(ISERROR(SEARCH("Eingetreten",B24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Verhindert">
-      <formula>NOT(ISERROR(SEARCH("Verhindert",B24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B26">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Eingetreten">
-      <formula>NOT(ISERROR(SEARCH("Eingetreten",B25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Verhindert">
-      <formula>NOT(ISERROR(SEARCH("Verhindert",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B10 B18:B21 B23:B26 B12:B16" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B10 B21:B23 B12:B16 B18:B19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Monitoring, Verhindert, Eingetreten"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2969,7 +2722,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F5:H10 F12:H21 L12:N21</xm:sqref>
+          <xm:sqref>F5:H10 F12:H19 L12:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="39" operator="containsText" id="{D0F71A92-99CA-4C26-A0C8-B80D19DA3DE5}">
@@ -2990,7 +2743,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="24" operator="containsText" id="{6B6ECD0D-2830-4939-B108-D6A7ABA1BDE9}">
-            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,F22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,F20)))</xm:f>
             <xm:f>Bewertungsmatrix!$A$3</xm:f>
             <x14:dxf>
               <font>
@@ -3003,11 +2756,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F22:H26</xm:sqref>
+          <xm:sqref>F20:H23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="16" operator="containsText" id="{92AE4E55-D893-4D56-8298-696AD604F894}">
-            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,L22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,L20)))</xm:f>
             <xm:f>Bewertungsmatrix!$A$3</xm:f>
             <x14:dxf>
               <font>
@@ -3020,7 +2773,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L22:N26</xm:sqref>
+          <xm:sqref>L20:N23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3030,13 +2783,13 @@
           <x14:formula1>
             <xm:f>Bewertungsmatrix!$A$8:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G10 G12:G16 M18:M21 M5:M10 M12:M16 G18:G21 M23:M26 G23:G26</xm:sqref>
+          <xm:sqref>G5:G10 G12:G16 M5:M10 M12:M16 M21:M23 G21:G23 M18:M19 G18:G19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B726877-E88E-4ED7-AA75-38D95FCE8CC1}">
           <x14:formula1>
             <xm:f>Bewertungsmatrix!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F10 F12:F16 L18:L21 L5:L10 L12:L16 F18:F21 L23:L26 F23:F26</xm:sqref>
+          <xm:sqref>F5:F10 F12:F16 L5:L10 L12:L16 L21:L23 F21:F23 L18:L19 F18:F19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
